--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Gastos del Proyecto Jaipur</t>
   </si>
@@ -40,10 +40,25 @@
     <t>Impresión de portada y contraportada</t>
   </si>
   <si>
-    <t>Caja y repuestos de caja para el CD.</t>
-  </si>
-  <si>
     <t>Impresión de manual de usuario</t>
+  </si>
+  <si>
+    <t>Impresión de documentos para revisión y folder</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sobre manila para entrega</t>
+  </si>
+  <si>
+    <t>Caja y repuesto de caja para el CD</t>
+  </si>
+  <si>
+    <t>CD en blanco y repuesto</t>
+  </si>
+  <si>
+    <t>Impresión y engargolado final</t>
   </si>
 </sst>
 </file>
@@ -86,6 +101,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,12 +123,184 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -120,26 +308,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -422,316 +648,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
+        <v>43025</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43032</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43039</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43046</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
         <v>43049</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
-        <f xml:space="preserve"> 89.97 + 19.99</f>
-        <v>109.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B8" s="4">
         <v>43049</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13">
+        <v>59.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="B9" s="4">
+        <v>43049</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13">
         <v>59.99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>43051</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D10" s="13">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>43059</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="4">
+        <v>43060</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7">
+        <f>SUM(D3:D17)</f>
+        <v>232.45000000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>